--- a/data/Thorgal/annotations/agreement/arthur.xlsx
+++ b/data/Thorgal/annotations/agreement/arthur.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent\eclipse\workspaces\Networks\NaNet\data\Thorgal\annotations\agreement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{6DE7F6B1-3598-4B5A-9618-D21E28F55B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC938789-6AC3-40CF-ADFE-71DD2A88E6E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Interactions_T06" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="123">
   <si>
     <t>Volume</t>
   </si>
@@ -267,12 +267,138 @@
   </si>
   <si>
     <t>Scientifiques_6.7</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Vigrid_20.3</t>
+  </si>
+  <si>
+    <t>Villageoises_20.3</t>
+  </si>
+  <si>
+    <t>Erik</t>
+  </si>
+  <si>
+    <t>Villageois_20.3</t>
+  </si>
+  <si>
+    <t>Thing_20.10</t>
+  </si>
+  <si>
+    <t>Loups_20.4</t>
+  </si>
+  <si>
+    <t>Villageois_20.8</t>
+  </si>
+  <si>
+    <t>Kriss de Valnor</t>
+  </si>
+  <si>
+    <t>Vikings_20.9</t>
+  </si>
+  <si>
+    <t>Guerriers_20.9</t>
+  </si>
+  <si>
+    <t>Villageoises_20.13</t>
+  </si>
+  <si>
+    <t>Loups_20.18</t>
+  </si>
+  <si>
+    <t>Arkadès</t>
+  </si>
+  <si>
+    <t>Darek le Svéar</t>
+  </si>
+  <si>
+    <t>Esclave_20.18</t>
+  </si>
+  <si>
+    <t>Garde_20.18.2</t>
+  </si>
+  <si>
+    <t>Garde_20.18.3</t>
+  </si>
+  <si>
+    <t>Garde_20.18.4</t>
+  </si>
+  <si>
+    <t>Voleur_20.24.1</t>
+  </si>
+  <si>
+    <t>Voleur_20.24.2</t>
+  </si>
+  <si>
+    <t>4 voleurs_20.25</t>
+  </si>
+  <si>
+    <t>Pêcheurs_20.27</t>
+  </si>
+  <si>
+    <t>Villageois_20.28</t>
+  </si>
+  <si>
+    <t>Gardes_20.31</t>
+  </si>
+  <si>
+    <t>Esclaves_20.31</t>
+  </si>
+  <si>
+    <t>Esclavagiste byzantin_20.32</t>
+  </si>
+  <si>
+    <t>Gardes_20.34</t>
+  </si>
+  <si>
+    <t>Garde_20.36.1</t>
+  </si>
+  <si>
+    <t>Garde_20.36.2</t>
+  </si>
+  <si>
+    <t>Esclaves_20.37</t>
+  </si>
+  <si>
+    <t>Gunnar_20.37</t>
+  </si>
+  <si>
+    <t>Esclaves_20.39.1</t>
+  </si>
+  <si>
+    <t>Lehla</t>
+  </si>
+  <si>
+    <t>Esclaves_20.39.2</t>
+  </si>
+  <si>
+    <t>Vikings_20.40</t>
+  </si>
+  <si>
+    <t>Gardes_20.40</t>
+  </si>
+  <si>
+    <t>Garde_20.40</t>
+  </si>
+  <si>
+    <t>Garde_20.41.1</t>
+  </si>
+  <si>
+    <t>Garde_20.41.2</t>
+  </si>
+  <si>
+    <t>Équipage_20.41</t>
+  </si>
+  <si>
+    <t>Pêcheur_20.47</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -534,25 +660,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="Accent" xfId="2"/>
-    <cellStyle name="Accent 1" xfId="3"/>
-    <cellStyle name="Accent 2" xfId="4"/>
-    <cellStyle name="Accent 3" xfId="5"/>
-    <cellStyle name="Bad" xfId="6"/>
-    <cellStyle name="Error" xfId="7"/>
-    <cellStyle name="Footnote" xfId="8"/>
-    <cellStyle name="Good" xfId="9"/>
-    <cellStyle name="Heading" xfId="10"/>
-    <cellStyle name="Heading 1" xfId="11"/>
-    <cellStyle name="Heading 2" xfId="12"/>
-    <cellStyle name="Hyperlink" xfId="13"/>
-    <cellStyle name="Neutral" xfId="14"/>
+    <cellStyle name="Accent" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Accent 1" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Accent 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Accent 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Bad" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Error" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Footnote" xfId="8" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Good" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Heading" xfId="10" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Heading 1" xfId="11" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Heading 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Hyperlink" xfId="13" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Neutral" xfId="14" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Note" xfId="1" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Result" xfId="15"/>
-    <cellStyle name="Status" xfId="16"/>
-    <cellStyle name="Text" xfId="17"/>
-    <cellStyle name="Warning" xfId="18"/>
+    <cellStyle name="Result" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Status" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Text" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Warning" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -863,12 +989,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection sqref="A1:J68"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.9" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="8" customWidth="1"/>
@@ -884,7 +1012,7 @@
     <col min="25" max="1024" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -908,7 +1036,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -940,7 +1068,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -969,7 +1097,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -992,7 +1120,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -1015,7 +1143,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
@@ -1038,7 +1166,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
@@ -1058,7 +1186,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -1084,7 +1212,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
@@ -1108,7 +1236,7 @@
       </c>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
@@ -1132,7 +1260,7 @@
       </c>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>6</v>
       </c>
@@ -1154,7 +1282,7 @@
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>6</v>
       </c>
@@ -1176,7 +1304,7 @@
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>6</v>
       </c>
@@ -1196,7 +1324,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>6</v>
       </c>
@@ -1219,7 +1347,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>6</v>
       </c>
@@ -1239,7 +1367,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>6</v>
       </c>
@@ -1268,7 +1396,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>6</v>
       </c>
@@ -1294,7 +1422,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>6</v>
       </c>
@@ -1317,7 +1445,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>6</v>
       </c>
@@ -1343,7 +1471,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>6</v>
       </c>
@@ -1369,7 +1497,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>6</v>
       </c>
@@ -1395,7 +1523,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>6</v>
       </c>
@@ -1424,7 +1552,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>6</v>
       </c>
@@ -1450,7 +1578,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>6</v>
       </c>
@@ -1470,7 +1598,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>6</v>
       </c>
@@ -1493,7 +1621,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>6</v>
       </c>
@@ -1516,7 +1644,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>6</v>
       </c>
@@ -1542,7 +1670,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>6</v>
       </c>
@@ -1562,7 +1690,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>6</v>
       </c>
@@ -1588,7 +1716,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>6</v>
       </c>
@@ -1611,7 +1739,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>6</v>
       </c>
@@ -1637,7 +1765,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>6</v>
       </c>
@@ -1660,7 +1788,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>6</v>
       </c>
@@ -1680,7 +1808,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>6</v>
       </c>
@@ -1709,7 +1837,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>6</v>
       </c>
@@ -1732,7 +1860,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>6</v>
       </c>
@@ -1758,7 +1886,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>6</v>
       </c>
@@ -1784,7 +1912,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>6</v>
       </c>
@@ -1807,7 +1935,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -1830,7 +1958,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>6</v>
       </c>
@@ -1853,7 +1981,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>6</v>
       </c>
@@ -1882,7 +2010,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>6</v>
       </c>
@@ -1908,7 +2036,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>6</v>
       </c>
@@ -1928,7 +2056,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>6</v>
       </c>
@@ -1951,7 +2079,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>6</v>
       </c>
@@ -1983,7 +2111,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>6</v>
       </c>
@@ -2003,7 +2131,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>6</v>
       </c>
@@ -2026,7 +2154,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>6</v>
       </c>
@@ -2055,7 +2183,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>6</v>
       </c>
@@ -2084,7 +2212,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>6</v>
       </c>
@@ -2110,7 +2238,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>6</v>
       </c>
@@ -2130,7 +2258,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>6</v>
       </c>
@@ -2153,7 +2281,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>6</v>
       </c>
@@ -2173,7 +2301,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>6</v>
       </c>
@@ -2196,7 +2324,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>6</v>
       </c>
@@ -2216,7 +2344,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>6</v>
       </c>
@@ -2239,7 +2367,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>6</v>
       </c>
@@ -2262,7 +2390,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>6</v>
       </c>
@@ -2282,7 +2410,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>6</v>
       </c>
@@ -2305,7 +2433,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>6</v>
       </c>
@@ -2325,7 +2453,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>6</v>
       </c>
@@ -2348,7 +2476,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>6</v>
       </c>
@@ -2371,7 +2499,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>6</v>
       </c>
@@ -2397,7 +2525,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>6</v>
       </c>
@@ -2420,7 +2548,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>6</v>
       </c>
@@ -2446,7 +2574,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>6</v>
       </c>
@@ -2472,7 +2600,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>6</v>
       </c>
@@ -2492,7 +2620,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>6</v>
       </c>
@@ -2526,12 +2654,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection sqref="A1:M81"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.9" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.42578125" style="7" customWidth="1"/>
     <col min="2" max="2" width="10" style="8" customWidth="1"/>
@@ -2548,7 +2678,7 @@
     <col min="25" max="1024" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2572,7 +2702,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>40</v>
       </c>
@@ -2604,7 +2734,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>40</v>
       </c>
@@ -2636,7 +2766,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>40</v>
       </c>
@@ -2665,7 +2795,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>40</v>
       </c>
@@ -2685,7 +2815,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>40</v>
       </c>
@@ -2717,7 +2847,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>40</v>
       </c>
@@ -2758,7 +2888,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>40</v>
       </c>
@@ -2787,7 +2917,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>40</v>
       </c>
@@ -2813,7 +2943,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>40</v>
       </c>
@@ -2836,7 +2966,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>40</v>
       </c>
@@ -2865,7 +2995,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>40</v>
       </c>
@@ -2885,7 +3015,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>40</v>
       </c>
@@ -2908,7 +3038,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>40</v>
       </c>
@@ -2934,7 +3064,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>40</v>
       </c>
@@ -2963,7 +3093,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>40</v>
       </c>
@@ -2995,7 +3125,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>40</v>
       </c>
@@ -3024,7 +3154,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>40</v>
       </c>
@@ -3044,7 +3174,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>40</v>
       </c>
@@ -3073,7 +3203,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>40</v>
       </c>
@@ -3108,7 +3238,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>40</v>
       </c>
@@ -3140,7 +3270,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>40</v>
       </c>
@@ -3163,7 +3293,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>40</v>
       </c>
@@ -3186,7 +3316,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>40</v>
       </c>
@@ -3218,7 +3348,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>40</v>
       </c>
@@ -3244,7 +3374,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>40</v>
       </c>
@@ -3267,7 +3397,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>40</v>
       </c>
@@ -3287,7 +3417,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>40</v>
       </c>
@@ -3310,7 +3440,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>40</v>
       </c>
@@ -3339,7 +3469,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>40</v>
       </c>
@@ -3362,7 +3492,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>40</v>
       </c>
@@ -3388,7 +3518,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>40</v>
       </c>
@@ -3411,7 +3541,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>40</v>
       </c>
@@ -3431,7 +3561,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>40</v>
       </c>
@@ -3454,7 +3584,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>40</v>
       </c>
@@ -3477,7 +3607,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>40</v>
       </c>
@@ -3497,7 +3627,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>40</v>
       </c>
@@ -3520,7 +3650,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>40</v>
       </c>
@@ -3543,7 +3673,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>40</v>
       </c>
@@ -3569,7 +3699,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>40</v>
       </c>
@@ -3589,7 +3719,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>40</v>
       </c>
@@ -3615,7 +3745,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>40</v>
       </c>
@@ -3635,7 +3765,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>40</v>
       </c>
@@ -3658,7 +3788,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>40</v>
       </c>
@@ -3678,7 +3808,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>40</v>
       </c>
@@ -3698,7 +3828,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>40</v>
       </c>
@@ -3721,7 +3851,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>40</v>
       </c>
@@ -3744,7 +3874,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>40</v>
       </c>
@@ -3764,7 +3894,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>40</v>
       </c>
@@ -3784,7 +3914,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>40</v>
       </c>
@@ -3804,7 +3934,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>40</v>
       </c>
@@ -3824,7 +3954,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>40</v>
       </c>
@@ -3844,7 +3974,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>40</v>
       </c>
@@ -3867,7 +3997,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>40</v>
       </c>
@@ -3893,7 +4023,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>40</v>
       </c>
@@ -3916,7 +4046,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>40</v>
       </c>
@@ -3936,7 +4066,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>40</v>
       </c>
@@ -3971,7 +4101,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>40</v>
       </c>
@@ -4003,7 +4133,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>40</v>
       </c>
@@ -4032,7 +4162,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>40</v>
       </c>
@@ -4055,7 +4185,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>40</v>
       </c>
@@ -4081,7 +4211,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>40</v>
       </c>
@@ -4104,7 +4234,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>40</v>
       </c>
@@ -4127,7 +4257,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>40</v>
       </c>
@@ -4153,7 +4283,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>40</v>
       </c>
@@ -4182,7 +4312,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>40</v>
       </c>
@@ -4205,7 +4335,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>40</v>
       </c>
@@ -4228,7 +4358,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>40</v>
       </c>
@@ -4251,7 +4381,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>40</v>
       </c>
@@ -4277,7 +4407,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>40</v>
       </c>
@@ -4306,7 +4436,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>40</v>
       </c>
@@ -4338,7 +4468,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>40</v>
       </c>
@@ -4367,7 +4497,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>40</v>
       </c>
@@ -4390,7 +4520,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>40</v>
       </c>
@@ -4410,7 +4540,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>40</v>
       </c>
@@ -4439,7 +4569,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>40</v>
       </c>
@@ -4459,7 +4589,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>40</v>
       </c>
@@ -4485,7 +4615,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>40</v>
       </c>
@@ -4514,7 +4644,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>40</v>
       </c>
@@ -4537,7 +4667,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>40</v>
       </c>
@@ -4563,7 +4693,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>40</v>
       </c>
@@ -4606,12 +4736,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:P82"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F31" sqref="A1:P82"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.9" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.42578125" style="7" customWidth="1"/>
     <col min="2" max="2" width="10" style="8" customWidth="1"/>
@@ -4623,7 +4755,7 @@
     <col min="25" max="1024" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4646,6 +4778,2379 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="8">
+        <v>3</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9">
+        <v>3</v>
+      </c>
+      <c r="E2" s="9">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="8">
+        <v>3</v>
+      </c>
+      <c r="C3" s="8">
+        <v>3</v>
+      </c>
+      <c r="D3" s="9">
+        <v>3</v>
+      </c>
+      <c r="E3" s="9">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="8">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8">
+        <v>4</v>
+      </c>
+      <c r="D4" s="9">
+        <v>4</v>
+      </c>
+      <c r="E4" s="9">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="8">
+        <v>4</v>
+      </c>
+      <c r="C5" s="8">
+        <v>6</v>
+      </c>
+      <c r="D5" s="9">
+        <v>4</v>
+      </c>
+      <c r="E5" s="9">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="8">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8">
+        <v>8</v>
+      </c>
+      <c r="D6" s="9">
+        <v>5</v>
+      </c>
+      <c r="E6" s="9">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="8">
+        <v>5</v>
+      </c>
+      <c r="C7" s="8">
+        <v>5</v>
+      </c>
+      <c r="D7" s="9">
+        <v>5</v>
+      </c>
+      <c r="E7" s="9">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="8">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9">
+        <v>7</v>
+      </c>
+      <c r="E8" s="9">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="8">
+        <v>7</v>
+      </c>
+      <c r="C9" s="8">
+        <v>3</v>
+      </c>
+      <c r="D9" s="9">
+        <v>7</v>
+      </c>
+      <c r="E9" s="9">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="8">
+        <v>7</v>
+      </c>
+      <c r="C10" s="8">
+        <v>10</v>
+      </c>
+      <c r="D10" s="9">
+        <v>8</v>
+      </c>
+      <c r="E10" s="9">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" t="s">
+        <v>87</v>
+      </c>
+      <c r="J10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="8">
+        <v>8</v>
+      </c>
+      <c r="C11" s="8">
+        <v>6</v>
+      </c>
+      <c r="D11" s="9">
+        <v>11</v>
+      </c>
+      <c r="E11" s="9">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" t="s">
+        <v>82</v>
+      </c>
+      <c r="K11" t="s">
+        <v>84</v>
+      </c>
+      <c r="L11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="8">
+        <v>9</v>
+      </c>
+      <c r="C12" s="8">
+        <v>5</v>
+      </c>
+      <c r="D12" s="9">
+        <v>9</v>
+      </c>
+      <c r="E12" s="9">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
+        <v>89</v>
+      </c>
+      <c r="I12" t="s">
+        <v>90</v>
+      </c>
+      <c r="J12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="8">
+        <v>9</v>
+      </c>
+      <c r="C13" s="8">
+        <v>8</v>
+      </c>
+      <c r="D13" s="9">
+        <v>9</v>
+      </c>
+      <c r="E13" s="9">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s">
+        <v>89</v>
+      </c>
+      <c r="I13" t="s">
+        <v>90</v>
+      </c>
+      <c r="J13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="8">
+        <v>10</v>
+      </c>
+      <c r="C14" s="8">
+        <v>2</v>
+      </c>
+      <c r="D14" s="9">
+        <v>10</v>
+      </c>
+      <c r="E14" s="9">
+        <v>4</v>
+      </c>
+      <c r="F14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="8">
+        <v>12</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1</v>
+      </c>
+      <c r="D15" s="9">
+        <v>12</v>
+      </c>
+      <c r="E15" s="9">
+        <v>6</v>
+      </c>
+      <c r="F15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>64</v>
+      </c>
+      <c r="J15" t="s">
+        <v>86</v>
+      </c>
+      <c r="K15" t="s">
+        <v>53</v>
+      </c>
+      <c r="L15" t="s">
+        <v>88</v>
+      </c>
+      <c r="M15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="8">
+        <v>13</v>
+      </c>
+      <c r="C16" s="8">
+        <v>1</v>
+      </c>
+      <c r="D16" s="9">
+        <v>13</v>
+      </c>
+      <c r="E16" s="9">
+        <v>6</v>
+      </c>
+      <c r="F16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="8">
+        <v>13</v>
+      </c>
+      <c r="C17" s="8">
+        <v>7</v>
+      </c>
+      <c r="D17" s="9">
+        <v>14</v>
+      </c>
+      <c r="E17" s="9">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>64</v>
+      </c>
+      <c r="J17" t="s">
+        <v>82</v>
+      </c>
+      <c r="K17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="8">
+        <v>15</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1</v>
+      </c>
+      <c r="D18" s="9">
+        <v>15</v>
+      </c>
+      <c r="E18" s="9">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>64</v>
+      </c>
+      <c r="J18" t="s">
+        <v>88</v>
+      </c>
+      <c r="K18" t="s">
+        <v>82</v>
+      </c>
+      <c r="L18" t="s">
+        <v>84</v>
+      </c>
+      <c r="M18" t="s">
+        <v>86</v>
+      </c>
+      <c r="N18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="8">
+        <v>16</v>
+      </c>
+      <c r="C19" s="8">
+        <v>1</v>
+      </c>
+      <c r="D19" s="9">
+        <v>16</v>
+      </c>
+      <c r="E19" s="9">
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="8">
+        <v>16</v>
+      </c>
+      <c r="C20" s="8">
+        <v>3</v>
+      </c>
+      <c r="D20" s="9">
+        <v>16</v>
+      </c>
+      <c r="E20" s="9">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>64</v>
+      </c>
+      <c r="J20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="8">
+        <v>17</v>
+      </c>
+      <c r="C21" s="8">
+        <v>1</v>
+      </c>
+      <c r="D21" s="9">
+        <v>17</v>
+      </c>
+      <c r="E21" s="9">
+        <v>6</v>
+      </c>
+      <c r="F21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="8">
+        <v>17</v>
+      </c>
+      <c r="C22" s="8">
+        <v>7</v>
+      </c>
+      <c r="D22" s="9">
+        <v>17</v>
+      </c>
+      <c r="E22" s="9">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="8">
+        <v>18</v>
+      </c>
+      <c r="C23" s="8">
+        <v>1</v>
+      </c>
+      <c r="D23" s="9">
+        <v>18</v>
+      </c>
+      <c r="E23" s="9">
+        <v>5</v>
+      </c>
+      <c r="F23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>64</v>
+      </c>
+      <c r="J23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="8">
+        <v>18</v>
+      </c>
+      <c r="C24" s="8">
+        <v>6</v>
+      </c>
+      <c r="D24" s="9">
+        <v>19</v>
+      </c>
+      <c r="E24" s="9">
+        <v>4</v>
+      </c>
+      <c r="F24" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>64</v>
+      </c>
+      <c r="J24" t="s">
+        <v>93</v>
+      </c>
+      <c r="K24" t="s">
+        <v>94</v>
+      </c>
+      <c r="L24" t="s">
+        <v>95</v>
+      </c>
+      <c r="M24" t="s">
+        <v>96</v>
+      </c>
+      <c r="N24" t="s">
+        <v>97</v>
+      </c>
+      <c r="O24" t="s">
+        <v>98</v>
+      </c>
+      <c r="P24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="8">
+        <v>19</v>
+      </c>
+      <c r="C25" s="8">
+        <v>5</v>
+      </c>
+      <c r="D25" s="9">
+        <v>19</v>
+      </c>
+      <c r="E25" s="9">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>64</v>
+      </c>
+      <c r="J25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="8">
+        <v>19</v>
+      </c>
+      <c r="C26" s="8">
+        <v>8</v>
+      </c>
+      <c r="D26" s="9">
+        <v>21</v>
+      </c>
+      <c r="E26" s="9">
+        <v>5</v>
+      </c>
+      <c r="F26" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>64</v>
+      </c>
+      <c r="J26" t="s">
+        <v>93</v>
+      </c>
+      <c r="K26" t="s">
+        <v>94</v>
+      </c>
+      <c r="L26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M26" t="s">
+        <v>98</v>
+      </c>
+      <c r="N26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="8">
+        <v>21</v>
+      </c>
+      <c r="C27" s="8">
+        <v>6</v>
+      </c>
+      <c r="D27" s="9">
+        <v>21</v>
+      </c>
+      <c r="E27" s="9">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>95</v>
+      </c>
+      <c r="G27" t="s">
+        <v>96</v>
+      </c>
+      <c r="H27" t="s">
+        <v>99</v>
+      </c>
+      <c r="I27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="8">
+        <v>21</v>
+      </c>
+      <c r="C28" s="8">
+        <v>9</v>
+      </c>
+      <c r="D28" s="9">
+        <v>22</v>
+      </c>
+      <c r="E28" s="9">
+        <v>4</v>
+      </c>
+      <c r="F28" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" t="s">
+        <v>64</v>
+      </c>
+      <c r="I28" t="s">
+        <v>93</v>
+      </c>
+      <c r="J28" t="s">
+        <v>95</v>
+      </c>
+      <c r="K28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="8">
+        <v>22</v>
+      </c>
+      <c r="C29" s="8">
+        <v>5</v>
+      </c>
+      <c r="D29" s="9">
+        <v>22</v>
+      </c>
+      <c r="E29" s="9">
+        <v>5</v>
+      </c>
+      <c r="F29" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" t="s">
+        <v>64</v>
+      </c>
+      <c r="I29" t="s">
+        <v>93</v>
+      </c>
+      <c r="J29" t="s">
+        <v>95</v>
+      </c>
+      <c r="K29" t="s">
+        <v>96</v>
+      </c>
+      <c r="L29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="8">
+        <v>22</v>
+      </c>
+      <c r="C30" s="8">
+        <v>6</v>
+      </c>
+      <c r="D30" s="9">
+        <v>22</v>
+      </c>
+      <c r="E30" s="9">
+        <v>7</v>
+      </c>
+      <c r="F30" t="s">
+        <v>79</v>
+      </c>
+      <c r="G30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" t="s">
+        <v>64</v>
+      </c>
+      <c r="I30" t="s">
+        <v>93</v>
+      </c>
+      <c r="J30" t="s">
+        <v>95</v>
+      </c>
+      <c r="K30" t="s">
+        <v>96</v>
+      </c>
+      <c r="L30" t="s">
+        <v>47</v>
+      </c>
+      <c r="M30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="8">
+        <v>23</v>
+      </c>
+      <c r="C31" s="8">
+        <v>1</v>
+      </c>
+      <c r="D31" s="9">
+        <v>23</v>
+      </c>
+      <c r="E31" s="9">
+        <v>5</v>
+      </c>
+      <c r="F31" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I31" t="s">
+        <v>93</v>
+      </c>
+      <c r="J31" t="s">
+        <v>95</v>
+      </c>
+      <c r="K31" t="s">
+        <v>96</v>
+      </c>
+      <c r="L31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="8">
+        <v>23</v>
+      </c>
+      <c r="C32" s="8">
+        <v>6</v>
+      </c>
+      <c r="D32" s="9">
+        <v>23</v>
+      </c>
+      <c r="E32" s="9">
+        <v>7</v>
+      </c>
+      <c r="F32" t="s">
+        <v>79</v>
+      </c>
+      <c r="G32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" t="s">
+        <v>64</v>
+      </c>
+      <c r="I32" t="s">
+        <v>93</v>
+      </c>
+      <c r="J32" t="s">
+        <v>95</v>
+      </c>
+      <c r="K32" t="s">
+        <v>96</v>
+      </c>
+      <c r="L32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="8">
+        <v>24</v>
+      </c>
+      <c r="C33" s="8">
+        <v>1</v>
+      </c>
+      <c r="D33" s="9">
+        <v>24</v>
+      </c>
+      <c r="E33" s="9">
+        <v>7</v>
+      </c>
+      <c r="F33" t="s">
+        <v>79</v>
+      </c>
+      <c r="G33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>64</v>
+      </c>
+      <c r="J33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="8">
+        <v>24</v>
+      </c>
+      <c r="C34" s="8">
+        <v>8</v>
+      </c>
+      <c r="D34" s="9">
+        <v>25</v>
+      </c>
+      <c r="E34" s="9">
+        <v>2</v>
+      </c>
+      <c r="F34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>64</v>
+      </c>
+      <c r="J34" t="s">
+        <v>93</v>
+      </c>
+      <c r="K34" t="s">
+        <v>100</v>
+      </c>
+      <c r="L34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="8">
+        <v>25</v>
+      </c>
+      <c r="C35" s="8">
+        <v>3</v>
+      </c>
+      <c r="D35" s="9">
+        <v>25</v>
+      </c>
+      <c r="E35" s="9">
+        <v>3</v>
+      </c>
+      <c r="F35" t="s">
+        <v>100</v>
+      </c>
+      <c r="G35" t="s">
+        <v>101</v>
+      </c>
+      <c r="H35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="8">
+        <v>25</v>
+      </c>
+      <c r="C36" s="8">
+        <v>4</v>
+      </c>
+      <c r="D36" s="9">
+        <v>26</v>
+      </c>
+      <c r="E36" s="9">
+        <v>3</v>
+      </c>
+      <c r="F36" t="s">
+        <v>79</v>
+      </c>
+      <c r="G36" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>64</v>
+      </c>
+      <c r="J36" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="8">
+        <v>26</v>
+      </c>
+      <c r="C37" s="8">
+        <v>4</v>
+      </c>
+      <c r="D37" s="9">
+        <v>26</v>
+      </c>
+      <c r="E37" s="9">
+        <v>5</v>
+      </c>
+      <c r="F37" t="s">
+        <v>79</v>
+      </c>
+      <c r="G37" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="8">
+        <v>27</v>
+      </c>
+      <c r="C38" s="8">
+        <v>1</v>
+      </c>
+      <c r="D38" s="9">
+        <v>27</v>
+      </c>
+      <c r="E38" s="9">
+        <v>4</v>
+      </c>
+      <c r="F38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="8">
+        <v>27</v>
+      </c>
+      <c r="C39" s="8">
+        <v>5</v>
+      </c>
+      <c r="D39" s="9">
+        <v>27</v>
+      </c>
+      <c r="E39" s="9">
+        <v>6</v>
+      </c>
+      <c r="F39" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="8">
+        <v>27</v>
+      </c>
+      <c r="C40" s="8">
+        <v>7</v>
+      </c>
+      <c r="D40" s="9">
+        <v>27</v>
+      </c>
+      <c r="E40" s="9">
+        <v>7</v>
+      </c>
+      <c r="F40" t="s">
+        <v>79</v>
+      </c>
+      <c r="G40" t="s">
+        <v>64</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" s="8">
+        <v>28</v>
+      </c>
+      <c r="C41" s="8">
+        <v>1</v>
+      </c>
+      <c r="D41" s="9">
+        <v>28</v>
+      </c>
+      <c r="E41" s="9">
+        <v>2</v>
+      </c>
+      <c r="F41" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" t="s">
+        <v>95</v>
+      </c>
+      <c r="H41" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="8">
+        <v>28</v>
+      </c>
+      <c r="C42" s="8">
+        <v>3</v>
+      </c>
+      <c r="D42" s="9">
+        <v>28</v>
+      </c>
+      <c r="E42" s="9">
+        <v>6</v>
+      </c>
+      <c r="F42" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="8">
+        <v>28</v>
+      </c>
+      <c r="C43" s="8">
+        <v>7</v>
+      </c>
+      <c r="D43" s="9">
+        <v>29</v>
+      </c>
+      <c r="E43" s="9">
+        <v>7</v>
+      </c>
+      <c r="F43" t="s">
+        <v>79</v>
+      </c>
+      <c r="G43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" s="8">
+        <v>29</v>
+      </c>
+      <c r="C44" s="8">
+        <v>8</v>
+      </c>
+      <c r="D44" s="9">
+        <v>29</v>
+      </c>
+      <c r="E44" s="9">
+        <v>8</v>
+      </c>
+      <c r="F44" t="s">
+        <v>79</v>
+      </c>
+      <c r="G44" t="s">
+        <v>64</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>84</v>
+      </c>
+      <c r="J44" t="s">
+        <v>89</v>
+      </c>
+      <c r="K44" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45" s="8">
+        <v>30</v>
+      </c>
+      <c r="C45" s="8">
+        <v>1</v>
+      </c>
+      <c r="D45" s="9">
+        <v>30</v>
+      </c>
+      <c r="E45" s="9">
+        <v>5</v>
+      </c>
+      <c r="F45" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" s="8">
+        <v>30</v>
+      </c>
+      <c r="C46" s="8">
+        <v>6</v>
+      </c>
+      <c r="D46" s="9">
+        <v>31</v>
+      </c>
+      <c r="E46" s="9">
+        <v>5</v>
+      </c>
+      <c r="F46" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" t="s">
+        <v>95</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B47" s="8">
+        <v>31</v>
+      </c>
+      <c r="C47" s="8">
+        <v>6</v>
+      </c>
+      <c r="D47" s="9">
+        <v>31</v>
+      </c>
+      <c r="E47" s="9">
+        <v>7</v>
+      </c>
+      <c r="F47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" t="s">
+        <v>95</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>105</v>
+      </c>
+      <c r="J47" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B48" s="8">
+        <v>32</v>
+      </c>
+      <c r="C48" s="8">
+        <v>1</v>
+      </c>
+      <c r="D48" s="9">
+        <v>32</v>
+      </c>
+      <c r="E48" s="9">
+        <v>2</v>
+      </c>
+      <c r="F48" t="s">
+        <v>89</v>
+      </c>
+      <c r="G48" t="s">
+        <v>107</v>
+      </c>
+      <c r="H48" t="s">
+        <v>105</v>
+      </c>
+      <c r="I48" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B49" s="8">
+        <v>32</v>
+      </c>
+      <c r="C49" s="8">
+        <v>3</v>
+      </c>
+      <c r="D49" s="9">
+        <v>32</v>
+      </c>
+      <c r="E49" s="9">
+        <v>6</v>
+      </c>
+      <c r="F49" t="s">
+        <v>89</v>
+      </c>
+      <c r="G49" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B50" s="8">
+        <v>33</v>
+      </c>
+      <c r="C50" s="8">
+        <v>1</v>
+      </c>
+      <c r="D50" s="9">
+        <v>33</v>
+      </c>
+      <c r="E50" s="9">
+        <v>8</v>
+      </c>
+      <c r="F50" t="s">
+        <v>89</v>
+      </c>
+      <c r="G50" t="s">
+        <v>79</v>
+      </c>
+      <c r="H50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B51" s="8">
+        <v>34</v>
+      </c>
+      <c r="C51" s="8">
+        <v>1</v>
+      </c>
+      <c r="D51" s="9">
+        <v>34</v>
+      </c>
+      <c r="E51" s="9">
+        <v>4</v>
+      </c>
+      <c r="F51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" t="s">
+        <v>95</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B52" s="8">
+        <v>34</v>
+      </c>
+      <c r="C52" s="8">
+        <v>5</v>
+      </c>
+      <c r="D52" s="9">
+        <v>34</v>
+      </c>
+      <c r="E52" s="9">
+        <v>6</v>
+      </c>
+      <c r="F52" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" t="s">
+        <v>95</v>
+      </c>
+      <c r="H52" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B53" s="8">
+        <v>34</v>
+      </c>
+      <c r="C53" s="8">
+        <v>7</v>
+      </c>
+      <c r="D53" s="9">
+        <v>35</v>
+      </c>
+      <c r="E53" s="9">
+        <v>3</v>
+      </c>
+      <c r="F53" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" s="8">
+        <v>35</v>
+      </c>
+      <c r="C54" s="8">
+        <v>4</v>
+      </c>
+      <c r="D54" s="9">
+        <v>35</v>
+      </c>
+      <c r="E54" s="9">
+        <v>7</v>
+      </c>
+      <c r="F54" t="s">
+        <v>95</v>
+      </c>
+      <c r="G54" t="s">
+        <v>107</v>
+      </c>
+      <c r="H54" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55" s="8">
+        <v>35</v>
+      </c>
+      <c r="C55" s="8">
+        <v>8</v>
+      </c>
+      <c r="D55" s="9">
+        <v>35</v>
+      </c>
+      <c r="E55" s="9">
+        <v>9</v>
+      </c>
+      <c r="F55" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B56" s="8">
+        <v>35</v>
+      </c>
+      <c r="C56" s="8">
+        <v>10</v>
+      </c>
+      <c r="D56" s="9">
+        <v>36</v>
+      </c>
+      <c r="E56" s="9">
+        <v>3</v>
+      </c>
+      <c r="F56" t="s">
+        <v>95</v>
+      </c>
+      <c r="G56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B57" s="8">
+        <v>36</v>
+      </c>
+      <c r="C57" s="8">
+        <v>4</v>
+      </c>
+      <c r="D57" s="9">
+        <v>36</v>
+      </c>
+      <c r="E57" s="9">
+        <v>8</v>
+      </c>
+      <c r="F57" t="s">
+        <v>95</v>
+      </c>
+      <c r="G57" t="s">
+        <v>14</v>
+      </c>
+      <c r="H57" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B58" s="8">
+        <v>36</v>
+      </c>
+      <c r="C58" s="8">
+        <v>9</v>
+      </c>
+      <c r="D58" s="9">
+        <v>36</v>
+      </c>
+      <c r="E58" s="9">
+        <v>10</v>
+      </c>
+      <c r="F58" t="s">
+        <v>95</v>
+      </c>
+      <c r="G58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B59" s="8">
+        <v>36</v>
+      </c>
+      <c r="C59" s="8">
+        <v>11</v>
+      </c>
+      <c r="D59" s="9">
+        <v>37</v>
+      </c>
+      <c r="E59" s="9">
+        <v>8</v>
+      </c>
+      <c r="F59" t="s">
+        <v>95</v>
+      </c>
+      <c r="G59" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" t="s">
+        <v>109</v>
+      </c>
+      <c r="I59" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B60" s="8">
+        <v>37</v>
+      </c>
+      <c r="C60" s="8">
+        <v>9</v>
+      </c>
+      <c r="D60" s="9">
+        <v>38</v>
+      </c>
+      <c r="E60" s="9">
+        <v>5</v>
+      </c>
+      <c r="F60" t="s">
+        <v>95</v>
+      </c>
+      <c r="G60" t="s">
+        <v>14</v>
+      </c>
+      <c r="H60" t="s">
+        <v>111</v>
+      </c>
+      <c r="I60" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B61" s="8">
+        <v>38</v>
+      </c>
+      <c r="C61" s="8">
+        <v>6</v>
+      </c>
+      <c r="D61" s="9">
+        <v>38</v>
+      </c>
+      <c r="E61" s="9">
+        <v>7</v>
+      </c>
+      <c r="F61" t="s">
+        <v>95</v>
+      </c>
+      <c r="G61" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61" t="s">
+        <v>111</v>
+      </c>
+      <c r="I61" t="s">
+        <v>112</v>
+      </c>
+      <c r="J61" t="s">
+        <v>109</v>
+      </c>
+      <c r="K61" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B62" s="8">
+        <v>39</v>
+      </c>
+      <c r="C62" s="8">
+        <v>1</v>
+      </c>
+      <c r="D62" s="9">
+        <v>39</v>
+      </c>
+      <c r="E62" s="9">
+        <v>1</v>
+      </c>
+      <c r="F62" t="s">
+        <v>95</v>
+      </c>
+      <c r="G62" t="s">
+        <v>14</v>
+      </c>
+      <c r="H62" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B63" s="8">
+        <v>39</v>
+      </c>
+      <c r="C63" s="8">
+        <v>2</v>
+      </c>
+      <c r="D63" s="9">
+        <v>39</v>
+      </c>
+      <c r="E63" s="9">
+        <v>3</v>
+      </c>
+      <c r="F63" t="s">
+        <v>95</v>
+      </c>
+      <c r="G63" t="s">
+        <v>114</v>
+      </c>
+      <c r="H63" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B64" s="8">
+        <v>39</v>
+      </c>
+      <c r="C64" s="8">
+        <v>4</v>
+      </c>
+      <c r="D64" s="9">
+        <v>39</v>
+      </c>
+      <c r="E64" s="9">
+        <v>5</v>
+      </c>
+      <c r="F64" t="s">
+        <v>14</v>
+      </c>
+      <c r="G64" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B65" s="8">
+        <v>39</v>
+      </c>
+      <c r="C65" s="8">
+        <v>6</v>
+      </c>
+      <c r="D65" s="9">
+        <v>39</v>
+      </c>
+      <c r="E65" s="9">
+        <v>7</v>
+      </c>
+      <c r="F65" t="s">
+        <v>95</v>
+      </c>
+      <c r="G65" t="s">
+        <v>114</v>
+      </c>
+      <c r="H65" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B66" s="8">
+        <v>39</v>
+      </c>
+      <c r="C66" s="8">
+        <v>8</v>
+      </c>
+      <c r="D66" s="9">
+        <v>39</v>
+      </c>
+      <c r="E66" s="9">
+        <v>8</v>
+      </c>
+      <c r="F66" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B67" s="8">
+        <v>40</v>
+      </c>
+      <c r="C67" s="8">
+        <v>1</v>
+      </c>
+      <c r="D67" s="9">
+        <v>40</v>
+      </c>
+      <c r="E67" s="9">
+        <v>4</v>
+      </c>
+      <c r="F67" t="s">
+        <v>14</v>
+      </c>
+      <c r="G67" t="s">
+        <v>116</v>
+      </c>
+      <c r="H67" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B68" s="8">
+        <v>40</v>
+      </c>
+      <c r="C68" s="8">
+        <v>5</v>
+      </c>
+      <c r="D68" s="9">
+        <v>40</v>
+      </c>
+      <c r="E68" s="9">
+        <v>6</v>
+      </c>
+      <c r="F68" t="s">
+        <v>14</v>
+      </c>
+      <c r="G68" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B69" s="8">
+        <v>40</v>
+      </c>
+      <c r="C69" s="8">
+        <v>7</v>
+      </c>
+      <c r="D69" s="9">
+        <v>40</v>
+      </c>
+      <c r="E69" s="9">
+        <v>8</v>
+      </c>
+      <c r="F69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B70" s="8">
+        <v>41</v>
+      </c>
+      <c r="C70" s="8">
+        <v>1</v>
+      </c>
+      <c r="D70" s="9">
+        <v>41</v>
+      </c>
+      <c r="E70" s="9">
+        <v>3</v>
+      </c>
+      <c r="F70" t="s">
+        <v>14</v>
+      </c>
+      <c r="G70" t="s">
+        <v>79</v>
+      </c>
+      <c r="H70" t="s">
+        <v>89</v>
+      </c>
+      <c r="I70" t="s">
+        <v>64</v>
+      </c>
+      <c r="J70" t="s">
+        <v>119</v>
+      </c>
+      <c r="K70" t="s">
+        <v>120</v>
+      </c>
+      <c r="L70" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B71" s="8">
+        <v>41</v>
+      </c>
+      <c r="C71" s="8">
+        <v>4</v>
+      </c>
+      <c r="D71" s="9">
+        <v>41</v>
+      </c>
+      <c r="E71" s="9">
+        <v>5</v>
+      </c>
+      <c r="F71" t="s">
+        <v>89</v>
+      </c>
+      <c r="G71" t="s">
+        <v>79</v>
+      </c>
+      <c r="H71" t="s">
+        <v>64</v>
+      </c>
+      <c r="I71" t="s">
+        <v>119</v>
+      </c>
+      <c r="J71" t="s">
+        <v>120</v>
+      </c>
+      <c r="K71" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B72" s="8">
+        <v>41</v>
+      </c>
+      <c r="C72" s="8">
+        <v>6</v>
+      </c>
+      <c r="D72" s="9">
+        <v>42</v>
+      </c>
+      <c r="E72" s="9">
+        <v>2</v>
+      </c>
+      <c r="F72" t="s">
+        <v>14</v>
+      </c>
+      <c r="G72" t="s">
+        <v>89</v>
+      </c>
+      <c r="H72" t="s">
+        <v>119</v>
+      </c>
+      <c r="I72" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B73" s="8">
+        <v>42</v>
+      </c>
+      <c r="C73" s="8">
+        <v>3</v>
+      </c>
+      <c r="D73" s="9">
+        <v>42</v>
+      </c>
+      <c r="E73" s="9">
+        <v>4</v>
+      </c>
+      <c r="F73" t="s">
+        <v>14</v>
+      </c>
+      <c r="G73" t="s">
+        <v>89</v>
+      </c>
+      <c r="H73" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B74" s="8">
+        <v>42</v>
+      </c>
+      <c r="C74" s="8">
+        <v>5</v>
+      </c>
+      <c r="D74" s="9">
+        <v>42</v>
+      </c>
+      <c r="E74" s="9">
+        <v>7</v>
+      </c>
+      <c r="F74" t="s">
+        <v>14</v>
+      </c>
+      <c r="G74" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B75" s="8">
+        <v>42</v>
+      </c>
+      <c r="C75" s="8">
+        <v>8</v>
+      </c>
+      <c r="D75" s="9">
+        <v>42</v>
+      </c>
+      <c r="E75" s="9">
+        <v>9</v>
+      </c>
+      <c r="F75" t="s">
+        <v>14</v>
+      </c>
+      <c r="G75" t="s">
+        <v>89</v>
+      </c>
+      <c r="H75" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76" s="8">
+        <v>43</v>
+      </c>
+      <c r="C76" s="8">
+        <v>1</v>
+      </c>
+      <c r="D76" s="9">
+        <v>43</v>
+      </c>
+      <c r="E76" s="9">
+        <v>6</v>
+      </c>
+      <c r="F76" t="s">
+        <v>14</v>
+      </c>
+      <c r="G76" t="s">
+        <v>112</v>
+      </c>
+      <c r="H76" t="s">
+        <v>107</v>
+      </c>
+      <c r="I76" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77" s="8">
+        <v>44</v>
+      </c>
+      <c r="C77" s="8">
+        <v>1</v>
+      </c>
+      <c r="D77" s="9">
+        <v>44</v>
+      </c>
+      <c r="E77" s="9">
+        <v>7</v>
+      </c>
+      <c r="F77" t="s">
+        <v>14</v>
+      </c>
+      <c r="G77" t="s">
+        <v>112</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>95</v>
+      </c>
+      <c r="J77" t="s">
+        <v>114</v>
+      </c>
+      <c r="K77" t="s">
+        <v>107</v>
+      </c>
+      <c r="L77" t="s">
+        <v>111</v>
+      </c>
+      <c r="M77" t="s">
+        <v>113</v>
+      </c>
+      <c r="N77" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" s="8">
+        <v>45</v>
+      </c>
+      <c r="C78" s="8">
+        <v>1</v>
+      </c>
+      <c r="D78" s="9">
+        <v>45</v>
+      </c>
+      <c r="E78" s="9">
+        <v>2</v>
+      </c>
+      <c r="F78" t="s">
+        <v>14</v>
+      </c>
+      <c r="G78" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79" s="8">
+        <v>45</v>
+      </c>
+      <c r="C79" s="8">
+        <v>3</v>
+      </c>
+      <c r="D79" s="9">
+        <v>46</v>
+      </c>
+      <c r="E79" s="9">
+        <v>6</v>
+      </c>
+      <c r="F79" t="s">
+        <v>14</v>
+      </c>
+      <c r="G79" t="s">
+        <v>47</v>
+      </c>
+      <c r="H79" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" s="8">
+        <v>46</v>
+      </c>
+      <c r="C80" s="8">
+        <v>7</v>
+      </c>
+      <c r="D80" s="9">
+        <v>46</v>
+      </c>
+      <c r="E80" s="9">
+        <v>8</v>
+      </c>
+      <c r="F80" t="s">
+        <v>14</v>
+      </c>
+      <c r="G80" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81" s="8">
+        <v>47</v>
+      </c>
+      <c r="C81" s="8">
+        <v>1</v>
+      </c>
+      <c r="D81" s="9">
+        <v>47</v>
+      </c>
+      <c r="E81" s="9">
+        <v>2</v>
+      </c>
+      <c r="F81" t="s">
+        <v>14</v>
+      </c>
+      <c r="G81" t="s">
+        <v>47</v>
+      </c>
+      <c r="H81" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" s="8">
+        <v>47</v>
+      </c>
+      <c r="C82" s="8">
+        <v>3</v>
+      </c>
+      <c r="D82" s="9">
+        <v>48</v>
+      </c>
+      <c r="E82" s="9">
+        <v>7</v>
+      </c>
+      <c r="F82" t="s">
+        <v>14</v>
+      </c>
+      <c r="G82" t="s">
+        <v>47</v>
+      </c>
+      <c r="H82" t="s">
+        <v>95</v>
+      </c>
+      <c r="I82" t="s">
+        <v>114</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="1.1437000000000002" bottom="1.1437000000000002" header="0.75000000000000011" footer="0.75000000000000011"/>
@@ -4655,12 +7160,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.9" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.42578125" style="7" customWidth="1"/>
     <col min="2" max="2" width="10" style="8" customWidth="1"/>
@@ -4672,7 +7177,7 @@
     <col min="25" max="1024" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4704,12 +7209,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.9" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.42578125" style="7" customWidth="1"/>
     <col min="2" max="2" width="10" style="8" customWidth="1"/>
@@ -4721,7 +7226,7 @@
     <col min="25" max="1024" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4745,7 +7250,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>65</v>
       </c>
@@ -4768,7 +7273,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>65</v>
       </c>
@@ -4788,7 +7293,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>65</v>
       </c>
@@ -4814,7 +7319,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>65</v>
       </c>
@@ -4834,7 +7339,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>65</v>
       </c>
@@ -4854,7 +7359,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>65</v>
       </c>
@@ -4874,7 +7379,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>65</v>
       </c>
@@ -4894,7 +7399,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>65</v>
       </c>
@@ -4920,7 +7425,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>65</v>
       </c>
@@ -4946,7 +7451,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>65</v>
       </c>
@@ -4969,7 +7474,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>65</v>
       </c>
@@ -4989,7 +7494,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>65</v>
       </c>
@@ -5012,7 +7517,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>65</v>
       </c>
@@ -5032,7 +7537,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>65</v>
       </c>
@@ -5055,7 +7560,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>65</v>
       </c>
@@ -5081,7 +7586,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>65</v>
       </c>
@@ -5104,7 +7609,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>65</v>
       </c>
@@ -5130,7 +7635,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>65</v>
       </c>
@@ -5156,7 +7661,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>65</v>
       </c>
@@ -5185,7 +7690,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>65</v>
       </c>
@@ -5217,7 +7722,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>65</v>
       </c>
@@ -5255,7 +7760,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>65</v>
       </c>
@@ -5278,7 +7783,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>65</v>
       </c>
@@ -5307,7 +7812,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>65</v>
       </c>
@@ -5339,7 +7844,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>65</v>
       </c>
@@ -5365,7 +7870,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>65</v>
       </c>
@@ -5388,7 +7893,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>65</v>
       </c>
@@ -5414,7 +7919,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>65</v>
       </c>
@@ -5446,7 +7951,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>65</v>
       </c>
@@ -5475,7 +7980,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>65</v>
       </c>
@@ -5498,7 +8003,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>65</v>
       </c>
@@ -5518,7 +8023,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>65</v>
       </c>
@@ -5541,7 +8046,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>65</v>
       </c>
@@ -5561,7 +8066,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>65</v>
       </c>
@@ -5584,7 +8089,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>65</v>
       </c>
@@ -5610,7 +8115,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>65</v>
       </c>
@@ -5633,7 +8138,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>65</v>
       </c>
@@ -5662,7 +8167,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>65</v>
       </c>
@@ -5685,7 +8190,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>65</v>
       </c>
@@ -5708,7 +8213,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>65</v>
       </c>
@@ -5731,7 +8236,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>65</v>
       </c>
@@ -5751,7 +8256,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
